--- a/Retailers Ledger/AGNOOR.xlsx
+++ b/Retailers Ledger/AGNOOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pawan &amp; Ravi - (660604868)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="20">
   <si>
     <t>pawan and ravi telicom-(660604868)</t>
   </si>
@@ -89,10 +89,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,6 +109,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -116,11 +132,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,17 +148,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,23 +201,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,50 +246,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -280,13 +280,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,37 +322,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,127 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,26 +507,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,19 +551,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,15 +576,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,134 +594,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,9 +759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1083,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1101,11 +1098,12 @@
     <col min="16383" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="5" t="s">
@@ -1327,26 +1325,26 @@
     <row r="24" s="1" customFormat="1"/>
     <row r="25" s="1" customFormat="1"/>
     <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="13" customFormat="1"/>
-    <row r="28" s="13" customFormat="1"/>
-    <row r="29" s="13" customFormat="1"/>
-    <row r="30" s="13" customFormat="1"/>
-    <row r="31" s="13" customFormat="1"/>
-    <row r="32" s="13" customFormat="1"/>
-    <row r="33" s="13" customFormat="1"/>
-    <row r="34" s="13" customFormat="1"/>
-    <row r="35" s="13" customFormat="1"/>
-    <row r="36" s="13" customFormat="1"/>
-    <row r="37" s="13" customFormat="1"/>
-    <row r="38" s="13" customFormat="1"/>
+    <row r="27" s="3" customFormat="1"/>
+    <row r="28" s="3" customFormat="1"/>
+    <row r="29" s="3" customFormat="1"/>
+    <row r="30" s="3" customFormat="1"/>
+    <row r="31" s="3" customFormat="1"/>
+    <row r="32" s="3" customFormat="1"/>
+    <row r="33" s="3" customFormat="1"/>
+    <row r="34" s="3" customFormat="1"/>
+    <row r="35" s="3" customFormat="1"/>
+    <row r="36" s="3" customFormat="1"/>
+    <row r="37" s="3" customFormat="1"/>
+    <row r="38" s="3" customFormat="1"/>
     <row r="39" s="1" customFormat="1"/>
     <row r="40" s="1" customFormat="1"/>
     <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="13" customFormat="1"/>
-    <row r="43" s="13" customFormat="1"/>
-    <row r="44" s="13" customFormat="1"/>
-    <row r="45" s="13" customFormat="1"/>
-    <row r="46" s="13" customFormat="1"/>
+    <row r="42" s="3" customFormat="1"/>
+    <row r="43" s="3" customFormat="1"/>
+    <row r="44" s="3" customFormat="1"/>
+    <row r="45" s="3" customFormat="1"/>
+    <row r="46" s="3" customFormat="1"/>
     <row r="47" s="1" customFormat="1" spans="1:1">
       <c r="A47" s="6"/>
     </row>
@@ -1354,18 +1352,18 @@
       <c r="A48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="13" customFormat="1"/>
-    <row r="51" s="13" customFormat="1"/>
-    <row r="52" s="13" customFormat="1"/>
-    <row r="53" s="13" customFormat="1"/>
+    <row r="50" s="3" customFormat="1"/>
+    <row r="51" s="3" customFormat="1"/>
+    <row r="52" s="3" customFormat="1"/>
+    <row r="53" s="3" customFormat="1"/>
     <row r="54" s="1" customFormat="1" spans="1:1">
       <c r="A54" s="6"/>
     </row>
     <row r="55" s="1" customFormat="1"/>
     <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="13" customFormat="1"/>
-    <row r="58" s="13" customFormat="1"/>
-    <row r="59" s="13" customFormat="1"/>
+    <row r="57" s="3" customFormat="1"/>
+    <row r="58" s="3" customFormat="1"/>
+    <row r="59" s="3" customFormat="1"/>
     <row r="60" s="1" customFormat="1" spans="1:1">
       <c r="A60" s="6"/>
     </row>
@@ -1375,7 +1373,8 @@
       <c r="A63" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1389,7 +1388,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1825,10 +1824,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2028,6 +2027,20 @@
       </c>
       <c r="E14" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7">
+        <v>44176</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2167,6 @@
       <c r="A8" s="7">
         <v>44175</v>
       </c>
-      <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1000</v>
       </c>
@@ -2180,7 +2192,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Retailers Ledger/AGNOOR.xlsx
+++ b/Retailers Ledger/AGNOOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pawan &amp; Ravi - (660604868)" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,45 +109,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -156,43 +117,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -208,24 +132,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +214,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -280,13 +280,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,49 +418,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,115 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,20 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +506,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -518,17 +524,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,44 +571,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,130 +594,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -743,10 +743,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1143,7 +1143,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1157,7 +1158,8 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E31" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>4000</v>
       </c>
     </row>
@@ -1171,7 +1173,8 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1185,7 +1188,8 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
@@ -1199,7 +1203,8 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
@@ -1213,7 +1218,8 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
@@ -1227,7 +1233,8 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
@@ -1241,7 +1248,8 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
@@ -1255,7 +1263,8 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>17000</v>
       </c>
     </row>
@@ -1269,7 +1278,8 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
@@ -1283,7 +1293,8 @@
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
     </row>
@@ -1297,7 +1308,8 @@
       <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
@@ -1311,25 +1323,101 @@
       <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1"/>
-    <row r="18" s="12" customFormat="1"/>
-    <row r="19" s="12" customFormat="1"/>
-    <row r="20" s="12" customFormat="1"/>
-    <row r="21" s="12" customFormat="1"/>
-    <row r="22" s="12" customFormat="1"/>
-    <row r="23" s="12" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="3" customFormat="1"/>
-    <row r="28" s="3" customFormat="1"/>
-    <row r="29" s="3" customFormat="1"/>
-    <row r="30" s="3" customFormat="1"/>
-    <row r="31" s="3" customFormat="1"/>
+    <row r="17" s="12" customFormat="1" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="1" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="12" customFormat="1" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="1" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="12" customFormat="1" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="12" customFormat="1" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="12" customFormat="1" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="5:5">
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="5:5">
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="5:5">
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="5:5">
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="5:5">
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
     <row r="32" s="3" customFormat="1"/>
     <row r="33" s="3" customFormat="1"/>
     <row r="34" s="3" customFormat="1"/>
@@ -1385,10 +1473,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1448,7 +1536,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -1462,7 +1551,8 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E34" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>1500</v>
       </c>
     </row>
@@ -1476,7 +1566,8 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1490,7 +1581,8 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
     </row>
@@ -1504,7 +1596,8 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
     </row>
@@ -1518,7 +1611,8 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -1532,7 +1626,8 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
     </row>
@@ -1546,7 +1641,8 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
     </row>
@@ -1560,7 +1656,8 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>4500</v>
       </c>
     </row>
@@ -1574,7 +1671,8 @@
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
     </row>
@@ -1588,7 +1686,8 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1602,7 +1701,8 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1616,7 +1716,8 @@
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
@@ -1630,7 +1731,8 @@
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -1644,7 +1746,8 @@
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1658,8 +1761,99 @@
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1675,10 +1869,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1737,7 +1931,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1751,7 +1946,8 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>1000</v>
       </c>
     </row>
@@ -1765,7 +1961,8 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1779,7 +1976,8 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1793,7 +1991,8 @@
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1807,8 +2006,93 @@
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1824,10 +2108,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1841,13 +2125,13 @@
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:2">
+    <row r="1" s="7" customFormat="1" spans="1:2">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:6">
+    <row r="2" s="7" customFormat="1" spans="1:6">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1875,106 +2159,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:5">
-      <c r="A4" s="7">
+    <row r="4" s="7" customFormat="1" spans="1:5">
+      <c r="A4" s="8">
         <v>44167</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>2080</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:5">
-      <c r="A5" s="7">
+    <row r="5" s="7" customFormat="1" spans="1:5">
+      <c r="A5" s="8">
         <v>44168</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1040</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E39" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:5">
-      <c r="A6" s="7">
+    <row r="6" s="7" customFormat="1" spans="1:5">
+      <c r="A6" s="8">
         <v>44168</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2000</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:5">
-      <c r="A7" s="7">
+    <row r="7" s="7" customFormat="1" spans="1:5">
+      <c r="A7" s="8">
         <v>44169</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>1040</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:5">
-      <c r="A8" s="7">
+    <row r="8" s="7" customFormat="1" spans="1:5">
+      <c r="A8" s="8">
         <v>44169</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>2080</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:5">
-      <c r="A9" s="7">
+    <row r="9" s="7" customFormat="1" spans="1:5">
+      <c r="A9" s="8">
         <v>44170</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>1040</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:5">
-      <c r="A10" s="7">
+    <row r="10" s="7" customFormat="1" spans="1:5">
+      <c r="A10" s="8">
         <v>44170</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>4000</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>44171</v>
       </c>
       <c r="B11" s="3">
@@ -1983,12 +2274,13 @@
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>44173</v>
       </c>
       <c r="B12" s="3">
@@ -1997,12 +2289,13 @@
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>44174</v>
       </c>
       <c r="C13" s="3">
@@ -2011,12 +2304,13 @@
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>44175</v>
       </c>
       <c r="C14" s="3">
@@ -2025,12 +2319,13 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>44176</v>
       </c>
       <c r="B15" s="3">
@@ -2039,8 +2334,153 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
         <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2055,13 +2495,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2117,7 +2557,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -2131,7 +2572,8 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E24" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2145,7 +2587,8 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -2159,12 +2602,13 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>44175</v>
       </c>
       <c r="C8" s="3">
@@ -2173,8 +2617,105 @@
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2190,13 +2731,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2252,7 +2793,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -2266,7 +2808,8 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2823,8 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -2294,8 +2838,105 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2311,13 +2952,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
@@ -2373,7 +3014,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -2387,8 +3029,117 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +3157,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
